--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamjolly/Desktop/debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamjolly/Desktop/cs70-mt1/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF28B715-C1B9-7740-ACED-517EF9BA5C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355D129-A406-634C-982D-76CB63DC868A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46900" yWindow="2220" windowWidth="28040" windowHeight="17440" xr2:uid="{C01BE436-8168-CF45-AE27-C042D894A1E5}"/>
+    <workbookView xWindow="46200" yWindow="2220" windowWidth="28040" windowHeight="17440" xr2:uid="{C01BE436-8168-CF45-AE27-C042D894A1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>Worst course staff ever</t>
-  </si>
-  <si>
     <t>No, but I really wish they brought back the p/np CS70 policy and opt in with eecs16a and eecs16b.</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>They’re doing the best they can. I think CS70 during summer is just rough</t>
   </si>
   <si>
-    <t>Fuck em</t>
-  </si>
-  <si>
     <t>Amin’s lectures have been a little rough- edged but Yining was good and my TA is solid.</t>
   </si>
   <si>
@@ -122,7 +116,13 @@
     <t>I think they’re pretty helpful and friendly! Also I do know a couple of people who got in the 60s btw</t>
   </si>
   <si>
-    <t>the course staff is trash dude</t>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>could be a lot better</t>
+  </si>
+  <si>
+    <t>i don't like the course staff</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -502,7 +502,7 @@
         <v>38.75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -510,7 +510,7 @@
         <v>33.5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -518,7 +518,7 @@
         <v>25.5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -532,7 +532,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -558,7 +558,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -566,7 +566,7 @@
         <v>27.5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -592,7 +592,7 @@
         <v>28.5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -617,9 +617,7 @@
       <c r="A19" s="1">
         <v>47.25</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
@@ -638,7 +636,7 @@
         <v>44.5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -688,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -708,7 +706,7 @@
         <v>43.25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -770,7 +768,7 @@
         <v>51.5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -808,7 +806,7 @@
         <v>42.5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -840,7 +838,7 @@
         <v>46.5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -848,7 +846,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -856,7 +854,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -876,7 +874,7 @@
         <v>44.75</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -920,14 +918,16 @@
         <v>43.25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>15</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
@@ -982,7 +982,7 @@
         <v>67.5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>33.25</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>23.75</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>65.239999999999995</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>46</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>43</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>60.45</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>50</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:2">
